--- a/Diplom/persons.xlsx
+++ b/Diplom/persons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,8 +562,6 @@
           <t>fas</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>М</t>
@@ -572,6 +570,33 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>11.02.1932</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Абдулахмарибнсалих</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Сигезмундникифоров</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Хисторожденный</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.07.1978</t>
         </is>
       </c>
     </row>
